--- a/data/OUTPUT/INPUT_DATA_FORMAT_XLSX/MAIN/LABOUR_COMMISSION_10_06_2025.xlsx
+++ b/data/OUTPUT/INPUT_DATA_FORMAT_XLSX/MAIN/LABOUR_COMMISSION_10_06_2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="188">
   <si>
     <t>regnumber</t>
   </si>
@@ -588,16 +588,7 @@
     <t>100</t>
   </si>
   <si>
-    <t>772000/19080</t>
-  </si>
-  <si>
-    <t>355555</t>
-  </si>
-  <si>
     <t>01975232-549d-ecd4-2751-9f72ca2b4525</t>
-  </si>
-  <si>
-    <t>776000/31121</t>
   </si>
   <si>
     <t>01975232-5529-4aca-591e-d7f6ad9b7ea1</t>
@@ -880,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -903,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -935,7 +926,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -967,7 +958,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -999,7 +990,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -1025,7 +1016,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -1051,7 +1042,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>68</v>
@@ -1083,7 +1074,7 @@
         <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>68</v>
@@ -1115,7 +1106,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>68</v>
@@ -1147,7 +1138,7 @@
         <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>68</v>
@@ -1179,7 +1170,7 @@
         <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>68</v>
@@ -1211,7 +1202,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>68</v>
@@ -1240,7 +1231,7 @@
         <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>68</v>
@@ -1266,7 +1257,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>68</v>
@@ -1298,7 +1289,7 @@
         <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>68</v>
@@ -1327,7 +1318,7 @@
         <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>68</v>
@@ -1356,7 +1347,7 @@
         <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>68</v>
@@ -1388,7 +1379,7 @@
         <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>68</v>
@@ -1417,7 +1408,7 @@
         <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>68</v>
@@ -1443,7 +1434,7 @@
         <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>68</v>
@@ -1466,7 +1457,7 @@
         <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>68</v>
@@ -1498,7 +1489,7 @@
         <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>68</v>
@@ -1530,7 +1521,7 @@
         <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>68</v>
@@ -1562,7 +1553,7 @@
         <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>68</v>
@@ -1594,7 +1585,7 @@
         <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>68</v>
@@ -1626,7 +1617,7 @@
         <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>68</v>
@@ -1658,7 +1649,7 @@
         <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>68</v>
@@ -1681,7 +1672,7 @@
         <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>68</v>
@@ -1713,7 +1704,7 @@
         <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>68</v>
@@ -1745,7 +1736,7 @@
         <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>68</v>
@@ -1777,7 +1768,7 @@
         <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>68</v>
@@ -1809,7 +1800,7 @@
         <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>68</v>
@@ -1841,7 +1832,7 @@
         <v>67</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>68</v>
@@ -1873,7 +1864,7 @@
         <v>67</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>68</v>
@@ -1899,10 +1890,10 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>68</v>
@@ -1928,7 +1919,7 @@
         <v>106</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>107</v>
@@ -1960,7 +1951,7 @@
         <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>107</v>
@@ -1992,7 +1983,7 @@
         <v>106</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>107</v>
@@ -2024,7 +2015,7 @@
         <v>106</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>107</v>
@@ -2050,7 +2041,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>107</v>
@@ -2073,7 +2064,7 @@
         <v>106</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>107</v>
@@ -2105,7 +2096,7 @@
         <v>106</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>107</v>
@@ -2137,7 +2128,7 @@
         <v>106</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>107</v>
@@ -2169,7 +2160,7 @@
         <v>106</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>107</v>
@@ -2201,7 +2192,7 @@
         <v>106</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>107</v>
@@ -2227,7 +2218,7 @@
         <v>106</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>107</v>
@@ -2256,7 +2247,7 @@
         <v>106</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>107</v>
@@ -2285,7 +2276,7 @@
         <v>106</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>107</v>
@@ -2314,7 +2305,7 @@
         <v>106</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>107</v>
@@ -2346,7 +2337,7 @@
         <v>106</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>107</v>
@@ -2378,7 +2369,7 @@
         <v>106</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>107</v>
@@ -2407,7 +2398,7 @@
         <v>106</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>107</v>
@@ -2433,7 +2424,7 @@
         <v>106</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>107</v>
@@ -2456,7 +2447,7 @@
         <v>106</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>107</v>
@@ -2488,7 +2479,7 @@
         <v>106</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>107</v>
@@ -2520,7 +2511,7 @@
         <v>106</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>107</v>
@@ -2552,7 +2543,7 @@
         <v>106</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>107</v>
@@ -2575,7 +2566,7 @@
         <v>106</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>107</v>
@@ -2598,7 +2589,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>107</v>
@@ -2630,7 +2621,7 @@
         <v>106</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>107</v>
@@ -2662,7 +2653,7 @@
         <v>106</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>107</v>
@@ -2694,7 +2685,7 @@
         <v>106</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>107</v>
@@ -2726,7 +2717,7 @@
         <v>106</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>107</v>
@@ -2749,7 +2740,7 @@
         <v>106</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>107</v>
@@ -2781,7 +2772,7 @@
         <v>106</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>107</v>
@@ -2813,7 +2804,7 @@
         <v>106</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>107</v>
@@ -2842,7 +2833,7 @@
         <v>106</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>107</v>
@@ -2871,16 +2862,16 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>181</v>
@@ -2903,7 +2894,7 @@
         <v>147</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>148</v>
@@ -2935,7 +2926,7 @@
         <v>147</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>148</v>
@@ -2967,7 +2958,7 @@
         <v>147</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>148</v>
@@ -2999,7 +2990,7 @@
         <v>147</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>148</v>
@@ -3022,7 +3013,7 @@
         <v>147</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>148</v>
@@ -3054,7 +3045,7 @@
         <v>147</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>148</v>
@@ -3086,7 +3077,7 @@
         <v>147</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>148</v>
@@ -3118,7 +3109,7 @@
         <v>147</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>148</v>
@@ -3150,7 +3141,7 @@
         <v>147</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>148</v>
@@ -3182,7 +3173,7 @@
         <v>147</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>148</v>
@@ -3208,7 +3199,7 @@
         <v>147</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>148</v>
@@ -3237,7 +3228,7 @@
         <v>147</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>148</v>
@@ -3266,7 +3257,7 @@
         <v>147</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>148</v>
@@ -3295,7 +3286,7 @@
         <v>147</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>148</v>
@@ -3327,7 +3318,7 @@
         <v>147</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>148</v>
@@ -3359,7 +3350,7 @@
         <v>147</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>148</v>
@@ -3388,7 +3379,7 @@
         <v>147</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>148</v>
@@ -3414,7 +3405,7 @@
         <v>147</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>148</v>
@@ -3437,7 +3428,7 @@
         <v>147</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>148</v>
@@ -3469,7 +3460,7 @@
         <v>147</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>148</v>
@@ -3501,7 +3492,7 @@
         <v>147</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>148</v>
@@ -3533,7 +3524,7 @@
         <v>147</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>148</v>
@@ -3556,7 +3547,7 @@
         <v>147</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>148</v>
@@ -3588,7 +3579,7 @@
         <v>147</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>148</v>
@@ -3620,7 +3611,7 @@
         <v>147</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>148</v>
@@ -3643,7 +3634,7 @@
         <v>147</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>148</v>
@@ -3675,7 +3666,7 @@
         <v>147</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>148</v>
@@ -3707,7 +3698,7 @@
         <v>147</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>148</v>
@@ -3739,7 +3730,7 @@
         <v>147</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>148</v>
@@ -3771,7 +3762,7 @@
         <v>147</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>148</v>
@@ -3803,7 +3794,7 @@
         <v>147</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>148</v>
@@ -3832,16 +3823,16 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>181</v>
